--- a/rig/specs/Rig Specs.xlsx
+++ b/rig/specs/Rig Specs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ny/Work/test/blockchain/ethereum/rig/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ny/Work/test/blockchain/ethereum/rig/white-glass/rig/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Card Comparison" sheetId="1" r:id="rId1"/>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,7 +780,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="20">
         <f>I5+I9+I25+I41</f>
-        <v>923800</v>
+        <v>931800</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="21">
         <f>SUM(I6:I7)</f>
-        <v>97000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -839,11 +839,11 @@
         <v>9000</v>
       </c>
       <c r="H7" s="5">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="12">
         <f>D7*H7</f>
-        <v>72000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/rig/specs/Rig Specs.xlsx
+++ b/rig/specs/Rig Specs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Card Comparison" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="45">
   <si>
     <t>Card Name</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Ordered</t>
+  </si>
+  <si>
+    <t>Max Cards per Box</t>
   </si>
 </sst>
 </file>
@@ -635,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,6 +691,10 @@
         <f>AVERAGE(F2,H2)*6</f>
         <v>118950</v>
       </c>
+      <c r="J2">
+        <f>F2*Constants!$B$3</f>
+        <v>117000</v>
+      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -714,7 +721,7 @@
         <v>159900</v>
       </c>
       <c r="J3">
-        <f>F3*6</f>
+        <f>F3*Constants!$B$3</f>
         <v>231000</v>
       </c>
     </row>
@@ -727,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2989,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,6 +3012,14 @@
         <v>65</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
